--- a/UnityPractice2/Assets/Data/Data.xlsx
+++ b/UnityPractice2/Assets/Data/Data.xlsx
@@ -1,19 +1,21 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="26827"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="28827"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Project\Project\ProjectBS\ProjectBS\Assets\Data\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\EverGreen\GitHub\UnityPractice\UnityPractice2\UnityPractice2\Assets\Data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9D5624E0-82EA-45F1-8ED0-E4766F84D709}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{89F6BC5D-7606-42D5-953E-A1C0567D3D84}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="8280" yWindow="2640" windowWidth="20145" windowHeight="14520" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
-    <sheet name="Test" sheetId="1" r:id="rId1"/>
+    <sheet name="Test" sheetId="4" r:id="rId1"/>
+    <sheet name="Dialogue" sheetId="1" r:id="rId2"/>
+    <sheet name="Character" sheetId="2" r:id="rId3"/>
   </sheets>
   <calcPr calcId="162913"/>
   <extLst>
@@ -25,9 +27,101 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3" uniqueCount="3">
-  <si>
-    <t>Name_S</t>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="42" uniqueCount="32">
+  <si>
+    <t>ID</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Character</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Position</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Dialogue</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Name</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Title</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Image</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Description</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>마리엔</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>메이드</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>marien_02</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>marien_03</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>marien_04</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>marien_05</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>마리엔_웃는표정</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>마리엔 _놀란표정</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>마리엔_슬픈표정</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>마리엔_기본표정</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>류 덕</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>주인</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Yaduck_01</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>류덕_기본표정</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>BG</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>BG_01</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
@@ -35,7 +129,31 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>bbno</t>
+    <t>"이 망할 메이드가 자꾸 말대답을 하네?"</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>"죄송합니다만, 뒤지고 싶으십니까?"</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>"하…어떻게 이런 메이드를 채용한걸까"</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>"너 같은 건 떱배로 두동강 내야하는데…"</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>"어디 한 번 그래보시죠?"</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>BG_02</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>BG_03</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -79,8 +197,12 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="1">
+  <cellXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="표준" xfId="0" builtinId="0"/>
@@ -360,30 +482,1551 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:B2"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{1DE313B7-971E-49AF-82FC-0502458FD8F5}">
+  <dimension ref="A1:G31"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="L12" sqref="L12"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="C4" sqref="C4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
+  <cols>
+    <col min="1" max="1" width="12.75" style="1" customWidth="1"/>
+    <col min="2" max="2" width="20.25" style="1" customWidth="1"/>
+    <col min="3" max="3" width="23.375" customWidth="1"/>
+    <col min="4" max="4" width="21.375" customWidth="1"/>
+    <col min="5" max="6" width="20" customWidth="1"/>
+    <col min="7" max="7" width="77.25" customWidth="1"/>
+  </cols>
   <sheetData>
-    <row r="1" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A1" t="s">
+    <row r="1" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A1" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="B1" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="C1" s="2"/>
+      <c r="D1" s="2"/>
+      <c r="E1" s="2"/>
+      <c r="F1" s="2"/>
+      <c r="G1" s="2"/>
+    </row>
+    <row r="2" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="C2" s="2"/>
+      <c r="D2" s="2"/>
+      <c r="E2" s="2"/>
+      <c r="F2" s="2"/>
+      <c r="G2" s="2"/>
+    </row>
+    <row r="3" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="C3" s="2"/>
+      <c r="D3" s="2"/>
+      <c r="E3" s="2"/>
+      <c r="F3" s="2"/>
+      <c r="G3" s="2"/>
+    </row>
+    <row r="4" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="C4" s="2"/>
+      <c r="D4" s="2"/>
+      <c r="E4" s="2"/>
+      <c r="F4" s="2"/>
+      <c r="G4" s="2"/>
+    </row>
+    <row r="5" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="C5" s="2"/>
+      <c r="D5" s="2"/>
+      <c r="E5" s="2"/>
+      <c r="F5" s="2"/>
+      <c r="G5" s="2"/>
+    </row>
+    <row r="6" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="C6" s="2"/>
+      <c r="D6" s="2"/>
+      <c r="E6" s="2"/>
+      <c r="F6" s="2"/>
+      <c r="G6" s="2"/>
+    </row>
+    <row r="7" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="C7" s="2"/>
+      <c r="D7" s="2"/>
+      <c r="E7" s="2"/>
+      <c r="F7" s="2"/>
+      <c r="G7" s="2"/>
+    </row>
+    <row r="8" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="C8" s="2"/>
+      <c r="D8" s="2"/>
+      <c r="E8" s="2"/>
+      <c r="F8" s="2"/>
+      <c r="G8" s="2"/>
+    </row>
+    <row r="9" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="C9" s="2"/>
+      <c r="D9" s="2"/>
+      <c r="E9" s="2"/>
+      <c r="F9" s="2"/>
+      <c r="G9" s="2"/>
+    </row>
+    <row r="10" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="C10" s="2"/>
+      <c r="D10" s="2"/>
+      <c r="E10" s="2"/>
+      <c r="F10" s="2"/>
+      <c r="G10" s="2"/>
+    </row>
+    <row r="11" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="C11" s="2"/>
+      <c r="D11" s="2"/>
+      <c r="E11" s="2"/>
+      <c r="F11" s="2"/>
+      <c r="G11" s="2"/>
+    </row>
+    <row r="12" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="C12" s="2"/>
+      <c r="D12" s="2"/>
+      <c r="E12" s="2"/>
+      <c r="F12" s="2"/>
+      <c r="G12" s="2"/>
+    </row>
+    <row r="13" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="C13" s="2"/>
+      <c r="D13" s="2"/>
+      <c r="E13" s="2"/>
+      <c r="F13" s="2"/>
+      <c r="G13" s="2"/>
+    </row>
+    <row r="14" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="C14" s="2"/>
+      <c r="D14" s="2"/>
+      <c r="E14" s="2"/>
+      <c r="F14" s="2"/>
+      <c r="G14" s="2"/>
+    </row>
+    <row r="15" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="C15" s="2"/>
+      <c r="D15" s="2"/>
+      <c r="E15" s="2"/>
+      <c r="F15" s="2"/>
+      <c r="G15" s="2"/>
+    </row>
+    <row r="16" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="C16" s="2"/>
+      <c r="D16" s="2"/>
+      <c r="E16" s="2"/>
+      <c r="F16" s="2"/>
+      <c r="G16" s="2"/>
+    </row>
+    <row r="17" spans="3:7" x14ac:dyDescent="0.3">
+      <c r="C17" s="2"/>
+      <c r="D17" s="2"/>
+      <c r="E17" s="2"/>
+      <c r="F17" s="2"/>
+      <c r="G17" s="2"/>
+    </row>
+    <row r="18" spans="3:7" x14ac:dyDescent="0.3">
+      <c r="C18" s="2"/>
+      <c r="D18" s="2"/>
+      <c r="E18" s="2"/>
+      <c r="F18" s="2"/>
+      <c r="G18" s="2"/>
+    </row>
+    <row r="19" spans="3:7" x14ac:dyDescent="0.3">
+      <c r="C19" s="2"/>
+      <c r="D19" s="2"/>
+      <c r="E19" s="2"/>
+      <c r="F19" s="2"/>
+      <c r="G19" s="2"/>
+    </row>
+    <row r="20" spans="3:7" x14ac:dyDescent="0.3">
+      <c r="C20" s="2"/>
+      <c r="D20" s="2"/>
+      <c r="E20" s="2"/>
+      <c r="F20" s="2"/>
+      <c r="G20" s="2"/>
+    </row>
+    <row r="21" spans="3:7" x14ac:dyDescent="0.3">
+      <c r="C21" s="2"/>
+      <c r="D21" s="2"/>
+      <c r="E21" s="2"/>
+      <c r="F21" s="2"/>
+      <c r="G21" s="2"/>
+    </row>
+    <row r="22" spans="3:7" x14ac:dyDescent="0.3">
+      <c r="C22" s="2"/>
+      <c r="D22" s="2"/>
+      <c r="E22" s="2"/>
+      <c r="F22" s="2"/>
+      <c r="G22" s="2"/>
+    </row>
+    <row r="23" spans="3:7" x14ac:dyDescent="0.3">
+      <c r="C23" s="2"/>
+      <c r="D23" s="2"/>
+      <c r="E23" s="2"/>
+      <c r="F23" s="2"/>
+      <c r="G23" s="2"/>
+    </row>
+    <row r="24" spans="3:7" x14ac:dyDescent="0.3">
+      <c r="C24" s="2"/>
+      <c r="D24" s="2"/>
+      <c r="E24" s="2"/>
+      <c r="F24" s="2"/>
+      <c r="G24" s="2"/>
+    </row>
+    <row r="25" spans="3:7" x14ac:dyDescent="0.3">
+      <c r="C25" s="2"/>
+      <c r="D25" s="2"/>
+      <c r="E25" s="2"/>
+      <c r="F25" s="2"/>
+      <c r="G25" s="2"/>
+    </row>
+    <row r="26" spans="3:7" x14ac:dyDescent="0.3">
+      <c r="C26" s="2"/>
+      <c r="D26" s="2"/>
+      <c r="E26" s="2"/>
+      <c r="F26" s="2"/>
+      <c r="G26" s="2"/>
+    </row>
+    <row r="27" spans="3:7" x14ac:dyDescent="0.3">
+      <c r="C27" s="2"/>
+      <c r="D27" s="2"/>
+      <c r="E27" s="2"/>
+      <c r="F27" s="2"/>
+      <c r="G27" s="2"/>
+    </row>
+    <row r="28" spans="3:7" x14ac:dyDescent="0.3">
+      <c r="C28" s="2"/>
+      <c r="D28" s="2"/>
+      <c r="E28" s="2"/>
+      <c r="F28" s="2"/>
+      <c r="G28" s="2"/>
+    </row>
+    <row r="29" spans="3:7" x14ac:dyDescent="0.3">
+      <c r="C29" s="2"/>
+      <c r="D29" s="2"/>
+      <c r="E29" s="2"/>
+      <c r="F29" s="2"/>
+      <c r="G29" s="2"/>
+    </row>
+    <row r="30" spans="3:7" x14ac:dyDescent="0.3">
+      <c r="C30" s="2"/>
+      <c r="D30" s="2"/>
+      <c r="E30" s="2"/>
+      <c r="F30" s="2"/>
+      <c r="G30" s="2"/>
+    </row>
+    <row r="31" spans="3:7" x14ac:dyDescent="0.3">
+      <c r="C31" s="2"/>
+      <c r="D31" s="2"/>
+      <c r="E31" s="2"/>
+      <c r="F31" s="2"/>
+      <c r="G31" s="2"/>
+    </row>
+  </sheetData>
+  <phoneticPr fontId="1" type="noConversion"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+  <dimension ref="A1:M44"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="E19" sqref="E19"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
+  <cols>
+    <col min="1" max="1" width="12.75" style="1" customWidth="1"/>
+    <col min="2" max="2" width="20.25" style="1" customWidth="1"/>
+    <col min="3" max="3" width="23.375" style="1" customWidth="1"/>
+    <col min="4" max="4" width="20" style="1" customWidth="1"/>
+    <col min="5" max="5" width="77.25" style="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="A1" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="C1" s="1" t="s">
         <v>1</v>
       </c>
-      <c r="B1" t="s">
+      <c r="D1" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="E1" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="F1" s="2"/>
+      <c r="G1" s="2"/>
+      <c r="H1" s="2"/>
+      <c r="I1" s="2"/>
+      <c r="J1" s="2"/>
+      <c r="K1" s="2"/>
+      <c r="L1" s="2"/>
+      <c r="M1" s="2"/>
+    </row>
+    <row r="2" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="A2" s="1">
+        <v>1</v>
+      </c>
+      <c r="B2" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="C2" s="1">
+        <v>10101</v>
+      </c>
+      <c r="D2" s="1">
+        <v>5</v>
+      </c>
+      <c r="E2" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="F2" s="2"/>
+      <c r="G2" s="2"/>
+      <c r="H2" s="2"/>
+      <c r="I2" s="2"/>
+      <c r="J2" s="2"/>
+      <c r="K2" s="2"/>
+      <c r="L2" s="2"/>
+      <c r="M2" s="2"/>
+    </row>
+    <row r="3" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="A3" s="1">
+        <v>2</v>
+      </c>
+      <c r="B3" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="C3" s="1">
+        <v>10201</v>
+      </c>
+      <c r="D3" s="1">
+        <v>5</v>
+      </c>
+      <c r="E3" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="F3" s="2"/>
+      <c r="G3" s="2"/>
+      <c r="H3" s="2"/>
+      <c r="I3" s="2"/>
+      <c r="J3" s="2"/>
+      <c r="K3" s="2"/>
+      <c r="L3" s="2"/>
+      <c r="M3" s="2"/>
+    </row>
+    <row r="4" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="A4" s="1">
+        <v>3</v>
+      </c>
+      <c r="B4" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="C4" s="1">
+        <v>10101</v>
+      </c>
+      <c r="D4" s="1">
+        <v>5</v>
+      </c>
+      <c r="E4" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="F4" s="2"/>
+      <c r="G4" s="2"/>
+      <c r="H4" s="2"/>
+      <c r="I4" s="2"/>
+      <c r="J4" s="2"/>
+      <c r="K4" s="2"/>
+      <c r="L4" s="2"/>
+      <c r="M4" s="2"/>
+    </row>
+    <row r="5" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="A5" s="1">
+        <v>4</v>
+      </c>
+      <c r="B5" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="C5" s="1">
+        <v>10101</v>
+      </c>
+      <c r="D5" s="1">
+        <v>5</v>
+      </c>
+      <c r="E5" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="F5" s="2"/>
+      <c r="G5" s="2"/>
+      <c r="H5" s="2"/>
+      <c r="I5" s="2"/>
+      <c r="J5" s="2"/>
+      <c r="K5" s="2"/>
+      <c r="L5" s="2"/>
+      <c r="M5" s="2"/>
+    </row>
+    <row r="6" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="A6" s="1">
+        <v>5</v>
+      </c>
+      <c r="B6" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="C6" s="1">
+        <v>10201</v>
+      </c>
+      <c r="D6" s="1">
+        <v>5</v>
+      </c>
+      <c r="E6" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="F6" s="2"/>
+      <c r="G6" s="2"/>
+      <c r="H6" s="2"/>
+      <c r="I6" s="2"/>
+      <c r="J6" s="2"/>
+      <c r="K6" s="2"/>
+      <c r="L6" s="2"/>
+      <c r="M6" s="2"/>
+    </row>
+    <row r="7" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="F7" s="2"/>
+      <c r="G7" s="2"/>
+      <c r="H7" s="2"/>
+      <c r="I7" s="2"/>
+      <c r="J7" s="2"/>
+      <c r="K7" s="2"/>
+      <c r="L7" s="2"/>
+      <c r="M7" s="2"/>
+    </row>
+    <row r="8" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="F8" s="2"/>
+      <c r="G8" s="2"/>
+      <c r="H8" s="2"/>
+      <c r="I8" s="2"/>
+      <c r="J8" s="2"/>
+      <c r="K8" s="2"/>
+      <c r="L8" s="2"/>
+      <c r="M8" s="2"/>
+    </row>
+    <row r="9" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="F9" s="2"/>
+      <c r="G9" s="2"/>
+      <c r="H9" s="2"/>
+      <c r="I9" s="2"/>
+      <c r="J9" s="2"/>
+      <c r="K9" s="2"/>
+      <c r="L9" s="2"/>
+      <c r="M9" s="2"/>
+    </row>
+    <row r="10" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="F10" s="2"/>
+      <c r="G10" s="2"/>
+      <c r="H10" s="2"/>
+      <c r="I10" s="2"/>
+      <c r="J10" s="2"/>
+      <c r="K10" s="2"/>
+      <c r="L10" s="2"/>
+      <c r="M10" s="2"/>
+    </row>
+    <row r="11" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="F11" s="2"/>
+      <c r="G11" s="2"/>
+      <c r="H11" s="2"/>
+      <c r="I11" s="2"/>
+      <c r="J11" s="2"/>
+      <c r="K11" s="2"/>
+      <c r="L11" s="2"/>
+      <c r="M11" s="2"/>
+    </row>
+    <row r="12" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="F12" s="2"/>
+      <c r="G12" s="2"/>
+      <c r="H12" s="2"/>
+      <c r="I12" s="2"/>
+      <c r="J12" s="2"/>
+      <c r="K12" s="2"/>
+      <c r="L12" s="2"/>
+      <c r="M12" s="2"/>
+    </row>
+    <row r="13" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="F13" s="2"/>
+      <c r="G13" s="2"/>
+      <c r="H13" s="2"/>
+      <c r="I13" s="2"/>
+      <c r="J13" s="2"/>
+      <c r="K13" s="2"/>
+      <c r="L13" s="2"/>
+      <c r="M13" s="2"/>
+    </row>
+    <row r="14" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="F14" s="2"/>
+      <c r="G14" s="2"/>
+      <c r="H14" s="2"/>
+      <c r="I14" s="2"/>
+      <c r="J14" s="2"/>
+      <c r="K14" s="2"/>
+      <c r="L14" s="2"/>
+      <c r="M14" s="2"/>
+    </row>
+    <row r="15" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="F15" s="2"/>
+      <c r="G15" s="2"/>
+      <c r="H15" s="2"/>
+      <c r="I15" s="2"/>
+      <c r="J15" s="2"/>
+      <c r="K15" s="2"/>
+      <c r="L15" s="2"/>
+      <c r="M15" s="2"/>
+    </row>
+    <row r="16" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="F16" s="2"/>
+      <c r="G16" s="2"/>
+      <c r="H16" s="2"/>
+      <c r="I16" s="2"/>
+      <c r="J16" s="2"/>
+      <c r="K16" s="2"/>
+      <c r="L16" s="2"/>
+      <c r="M16" s="2"/>
+    </row>
+    <row r="17" spans="6:13" x14ac:dyDescent="0.3">
+      <c r="F17" s="2"/>
+      <c r="G17" s="2"/>
+      <c r="H17" s="2"/>
+      <c r="I17" s="2"/>
+      <c r="J17" s="2"/>
+      <c r="K17" s="2"/>
+      <c r="L17" s="2"/>
+      <c r="M17" s="2"/>
+    </row>
+    <row r="18" spans="6:13" x14ac:dyDescent="0.3">
+      <c r="F18" s="2"/>
+      <c r="G18" s="2"/>
+      <c r="H18" s="2"/>
+      <c r="I18" s="2"/>
+      <c r="J18" s="2"/>
+      <c r="K18" s="2"/>
+      <c r="L18" s="2"/>
+      <c r="M18" s="2"/>
+    </row>
+    <row r="19" spans="6:13" x14ac:dyDescent="0.3">
+      <c r="F19" s="2"/>
+      <c r="G19" s="2"/>
+      <c r="H19" s="2"/>
+      <c r="I19" s="2"/>
+      <c r="J19" s="2"/>
+      <c r="K19" s="2"/>
+      <c r="L19" s="2"/>
+      <c r="M19" s="2"/>
+    </row>
+    <row r="20" spans="6:13" x14ac:dyDescent="0.3">
+      <c r="F20" s="2"/>
+      <c r="G20" s="2"/>
+      <c r="H20" s="2"/>
+      <c r="I20" s="2"/>
+      <c r="J20" s="2"/>
+      <c r="K20" s="2"/>
+      <c r="L20" s="2"/>
+      <c r="M20" s="2"/>
+    </row>
+    <row r="21" spans="6:13" x14ac:dyDescent="0.3">
+      <c r="F21" s="2"/>
+      <c r="G21" s="2"/>
+      <c r="H21" s="2"/>
+      <c r="I21" s="2"/>
+      <c r="J21" s="2"/>
+      <c r="K21" s="2"/>
+      <c r="L21" s="2"/>
+      <c r="M21" s="2"/>
+    </row>
+    <row r="22" spans="6:13" x14ac:dyDescent="0.3">
+      <c r="F22" s="2"/>
+      <c r="G22" s="2"/>
+      <c r="H22" s="2"/>
+      <c r="I22" s="2"/>
+      <c r="J22" s="2"/>
+      <c r="K22" s="2"/>
+      <c r="L22" s="2"/>
+      <c r="M22" s="2"/>
+    </row>
+    <row r="23" spans="6:13" x14ac:dyDescent="0.3">
+      <c r="F23" s="2"/>
+      <c r="G23" s="2"/>
+      <c r="H23" s="2"/>
+      <c r="I23" s="2"/>
+      <c r="J23" s="2"/>
+      <c r="K23" s="2"/>
+      <c r="L23" s="2"/>
+      <c r="M23" s="2"/>
+    </row>
+    <row r="24" spans="6:13" x14ac:dyDescent="0.3">
+      <c r="F24" s="2"/>
+      <c r="G24" s="2"/>
+      <c r="H24" s="2"/>
+      <c r="I24" s="2"/>
+      <c r="J24" s="2"/>
+      <c r="K24" s="2"/>
+      <c r="L24" s="2"/>
+      <c r="M24" s="2"/>
+    </row>
+    <row r="25" spans="6:13" x14ac:dyDescent="0.3">
+      <c r="F25" s="2"/>
+      <c r="G25" s="2"/>
+      <c r="H25" s="2"/>
+      <c r="I25" s="2"/>
+      <c r="J25" s="2"/>
+      <c r="K25" s="2"/>
+      <c r="L25" s="2"/>
+      <c r="M25" s="2"/>
+    </row>
+    <row r="26" spans="6:13" x14ac:dyDescent="0.3">
+      <c r="F26" s="2"/>
+      <c r="G26" s="2"/>
+      <c r="H26" s="2"/>
+      <c r="I26" s="2"/>
+      <c r="J26" s="2"/>
+      <c r="K26" s="2"/>
+      <c r="L26" s="2"/>
+      <c r="M26" s="2"/>
+    </row>
+    <row r="27" spans="6:13" x14ac:dyDescent="0.3">
+      <c r="F27" s="2"/>
+      <c r="G27" s="2"/>
+      <c r="H27" s="2"/>
+      <c r="I27" s="2"/>
+      <c r="J27" s="2"/>
+      <c r="K27" s="2"/>
+      <c r="L27" s="2"/>
+      <c r="M27" s="2"/>
+    </row>
+    <row r="28" spans="6:13" x14ac:dyDescent="0.3">
+      <c r="F28" s="2"/>
+      <c r="G28" s="2"/>
+      <c r="H28" s="2"/>
+      <c r="I28" s="2"/>
+      <c r="J28" s="2"/>
+      <c r="K28" s="2"/>
+      <c r="L28" s="2"/>
+      <c r="M28" s="2"/>
+    </row>
+    <row r="29" spans="6:13" x14ac:dyDescent="0.3">
+      <c r="F29" s="2"/>
+      <c r="G29" s="2"/>
+      <c r="H29" s="2"/>
+      <c r="I29" s="2"/>
+      <c r="J29" s="2"/>
+      <c r="K29" s="2"/>
+      <c r="L29" s="2"/>
+      <c r="M29" s="2"/>
+    </row>
+    <row r="30" spans="6:13" x14ac:dyDescent="0.3">
+      <c r="F30" s="2"/>
+      <c r="G30" s="2"/>
+      <c r="H30" s="2"/>
+      <c r="I30" s="2"/>
+      <c r="J30" s="2"/>
+      <c r="K30" s="2"/>
+      <c r="L30" s="2"/>
+      <c r="M30" s="2"/>
+    </row>
+    <row r="31" spans="6:13" x14ac:dyDescent="0.3">
+      <c r="F31" s="2"/>
+      <c r="G31" s="2"/>
+      <c r="H31" s="2"/>
+      <c r="I31" s="2"/>
+      <c r="J31" s="2"/>
+      <c r="K31" s="2"/>
+      <c r="L31" s="2"/>
+      <c r="M31" s="2"/>
+    </row>
+    <row r="32" spans="6:13" x14ac:dyDescent="0.3">
+      <c r="F32" s="2"/>
+      <c r="G32" s="2"/>
+      <c r="H32" s="2"/>
+      <c r="I32" s="2"/>
+      <c r="J32" s="2"/>
+      <c r="K32" s="2"/>
+      <c r="L32" s="2"/>
+      <c r="M32" s="2"/>
+    </row>
+    <row r="33" spans="6:13" x14ac:dyDescent="0.3">
+      <c r="F33" s="2"/>
+      <c r="G33" s="2"/>
+      <c r="H33" s="2"/>
+      <c r="I33" s="2"/>
+      <c r="J33" s="2"/>
+      <c r="K33" s="2"/>
+      <c r="L33" s="2"/>
+      <c r="M33" s="2"/>
+    </row>
+    <row r="34" spans="6:13" x14ac:dyDescent="0.3">
+      <c r="F34" s="2"/>
+      <c r="G34" s="2"/>
+      <c r="H34" s="2"/>
+      <c r="I34" s="2"/>
+      <c r="J34" s="2"/>
+      <c r="K34" s="2"/>
+      <c r="L34" s="2"/>
+      <c r="M34" s="2"/>
+    </row>
+    <row r="35" spans="6:13" x14ac:dyDescent="0.3">
+      <c r="F35" s="2"/>
+      <c r="G35" s="2"/>
+      <c r="H35" s="2"/>
+      <c r="I35" s="2"/>
+      <c r="J35" s="2"/>
+      <c r="K35" s="2"/>
+      <c r="L35" s="2"/>
+      <c r="M35" s="2"/>
+    </row>
+    <row r="36" spans="6:13" x14ac:dyDescent="0.3">
+      <c r="F36" s="2"/>
+      <c r="G36" s="2"/>
+      <c r="H36" s="2"/>
+      <c r="I36" s="2"/>
+      <c r="J36" s="2"/>
+      <c r="K36" s="2"/>
+      <c r="L36" s="2"/>
+      <c r="M36" s="2"/>
+    </row>
+    <row r="37" spans="6:13" x14ac:dyDescent="0.3">
+      <c r="F37" s="2"/>
+      <c r="G37" s="2"/>
+      <c r="H37" s="2"/>
+      <c r="I37" s="2"/>
+      <c r="J37" s="2"/>
+      <c r="K37" s="2"/>
+      <c r="L37" s="2"/>
+      <c r="M37" s="2"/>
+    </row>
+    <row r="38" spans="6:13" x14ac:dyDescent="0.3">
+      <c r="F38" s="2"/>
+      <c r="G38" s="2"/>
+      <c r="H38" s="2"/>
+      <c r="I38" s="2"/>
+      <c r="J38" s="2"/>
+      <c r="K38" s="2"/>
+      <c r="L38" s="2"/>
+      <c r="M38" s="2"/>
+    </row>
+    <row r="39" spans="6:13" x14ac:dyDescent="0.3">
+      <c r="F39" s="2"/>
+      <c r="G39" s="2"/>
+      <c r="H39" s="2"/>
+      <c r="I39" s="2"/>
+      <c r="J39" s="2"/>
+      <c r="K39" s="2"/>
+      <c r="L39" s="2"/>
+      <c r="M39" s="2"/>
+    </row>
+    <row r="40" spans="6:13" x14ac:dyDescent="0.3">
+      <c r="F40" s="2"/>
+      <c r="G40" s="2"/>
+      <c r="H40" s="2"/>
+      <c r="I40" s="2"/>
+      <c r="J40" s="2"/>
+      <c r="K40" s="2"/>
+      <c r="L40" s="2"/>
+      <c r="M40" s="2"/>
+    </row>
+    <row r="41" spans="6:13" x14ac:dyDescent="0.3">
+      <c r="F41" s="2"/>
+      <c r="G41" s="2"/>
+      <c r="H41" s="2"/>
+      <c r="I41" s="2"/>
+      <c r="J41" s="2"/>
+      <c r="K41" s="2"/>
+      <c r="L41" s="2"/>
+      <c r="M41" s="2"/>
+    </row>
+    <row r="42" spans="6:13" x14ac:dyDescent="0.3">
+      <c r="F42" s="2"/>
+      <c r="G42" s="2"/>
+      <c r="H42" s="2"/>
+      <c r="I42" s="2"/>
+      <c r="J42" s="2"/>
+      <c r="K42" s="2"/>
+      <c r="L42" s="2"/>
+      <c r="M42" s="2"/>
+    </row>
+    <row r="43" spans="6:13" x14ac:dyDescent="0.3">
+      <c r="F43" s="1"/>
+      <c r="G43" s="1"/>
+      <c r="H43" s="1"/>
+      <c r="I43" s="1"/>
+      <c r="J43" s="1"/>
+      <c r="K43" s="1"/>
+      <c r="L43" s="1"/>
+      <c r="M43" s="1"/>
+    </row>
+    <row r="44" spans="6:13" x14ac:dyDescent="0.3">
+      <c r="F44" s="1"/>
+      <c r="G44" s="1"/>
+      <c r="H44" s="1"/>
+      <c r="I44" s="1"/>
+      <c r="J44" s="1"/>
+      <c r="K44" s="1"/>
+      <c r="L44" s="1"/>
+      <c r="M44" s="1"/>
+    </row>
+  </sheetData>
+  <phoneticPr fontId="1" type="noConversion"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{2E5AA690-CA69-460E-BFA3-53916D3F18B2}">
+  <dimension ref="A1:S40"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection sqref="A1:E1048576"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
+  <cols>
+    <col min="1" max="1" width="12.125" style="1" customWidth="1"/>
+    <col min="2" max="2" width="12.5" style="1" customWidth="1"/>
+    <col min="3" max="3" width="11.375" style="1" customWidth="1"/>
+    <col min="4" max="4" width="38.5" style="1" customWidth="1"/>
+    <col min="5" max="5" width="15.125" style="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:19" x14ac:dyDescent="0.3">
+      <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
-    </row>
-    <row r="2" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A2">
-        <v>0</v>
-      </c>
-      <c r="B2" t="s">
-        <v>2</v>
-      </c>
+      <c r="B1" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="C1" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="D1" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="E1" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="F1" s="2"/>
+      <c r="G1" s="2"/>
+      <c r="H1" s="2"/>
+      <c r="I1" s="2"/>
+      <c r="J1" s="2"/>
+      <c r="K1" s="2"/>
+      <c r="L1" s="2"/>
+      <c r="M1" s="2"/>
+      <c r="N1" s="2"/>
+      <c r="O1" s="2"/>
+      <c r="P1" s="2"/>
+      <c r="Q1" s="2"/>
+      <c r="R1" s="2"/>
+      <c r="S1" s="2"/>
+    </row>
+    <row r="2" spans="1:19" x14ac:dyDescent="0.3">
+      <c r="A2" s="1">
+        <v>10101</v>
+      </c>
+      <c r="B2" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="C2" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="D2" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="E2" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="F2" s="2"/>
+      <c r="G2" s="2"/>
+      <c r="H2" s="2"/>
+      <c r="I2" s="2"/>
+      <c r="J2" s="2"/>
+      <c r="K2" s="2"/>
+      <c r="L2" s="2"/>
+      <c r="M2" s="2"/>
+      <c r="N2" s="2"/>
+      <c r="O2" s="2"/>
+      <c r="P2" s="2"/>
+      <c r="Q2" s="2"/>
+      <c r="R2" s="2"/>
+      <c r="S2" s="2"/>
+    </row>
+    <row r="3" spans="1:19" x14ac:dyDescent="0.3">
+      <c r="A3" s="1">
+        <v>10201</v>
+      </c>
+      <c r="B3" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="C3" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="D3" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="E3" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="F3" s="2"/>
+      <c r="G3" s="2"/>
+      <c r="H3" s="2"/>
+      <c r="I3" s="2"/>
+      <c r="J3" s="2"/>
+      <c r="K3" s="2"/>
+      <c r="L3" s="2"/>
+      <c r="M3" s="2"/>
+      <c r="N3" s="2"/>
+      <c r="O3" s="2"/>
+      <c r="P3" s="2"/>
+      <c r="Q3" s="2"/>
+      <c r="R3" s="2"/>
+      <c r="S3" s="2"/>
+    </row>
+    <row r="4" spans="1:19" x14ac:dyDescent="0.3">
+      <c r="A4" s="1">
+        <v>10202</v>
+      </c>
+      <c r="B4" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="C4" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="D4" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="E4" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="F4" s="2"/>
+      <c r="G4" s="2"/>
+      <c r="H4" s="2"/>
+      <c r="I4" s="2"/>
+      <c r="J4" s="2"/>
+      <c r="K4" s="2"/>
+      <c r="L4" s="2"/>
+      <c r="M4" s="2"/>
+      <c r="N4" s="2"/>
+      <c r="O4" s="2"/>
+      <c r="P4" s="2"/>
+      <c r="Q4" s="2"/>
+      <c r="R4" s="2"/>
+      <c r="S4" s="2"/>
+    </row>
+    <row r="5" spans="1:19" x14ac:dyDescent="0.3">
+      <c r="A5" s="1">
+        <v>10203</v>
+      </c>
+      <c r="B5" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="C5" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="D5" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="E5" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="F5" s="2"/>
+      <c r="G5" s="2"/>
+      <c r="H5" s="2"/>
+      <c r="I5" s="2"/>
+      <c r="J5" s="2"/>
+      <c r="K5" s="2"/>
+      <c r="L5" s="2"/>
+      <c r="M5" s="2"/>
+      <c r="N5" s="2"/>
+      <c r="O5" s="2"/>
+      <c r="P5" s="2"/>
+      <c r="Q5" s="2"/>
+      <c r="R5" s="2"/>
+      <c r="S5" s="2"/>
+    </row>
+    <row r="6" spans="1:19" x14ac:dyDescent="0.3">
+      <c r="A6" s="1">
+        <v>10204</v>
+      </c>
+      <c r="B6" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="C6" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="D6" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="E6" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="F6" s="2"/>
+      <c r="G6" s="2"/>
+      <c r="H6" s="2"/>
+      <c r="I6" s="2"/>
+      <c r="J6" s="2"/>
+      <c r="K6" s="2"/>
+      <c r="L6" s="2"/>
+      <c r="M6" s="2"/>
+      <c r="N6" s="2"/>
+      <c r="O6" s="2"/>
+      <c r="P6" s="2"/>
+      <c r="Q6" s="2"/>
+      <c r="R6" s="2"/>
+      <c r="S6" s="2"/>
+    </row>
+    <row r="7" spans="1:19" x14ac:dyDescent="0.3">
+      <c r="F7" s="2"/>
+      <c r="G7" s="2"/>
+      <c r="H7" s="2"/>
+      <c r="I7" s="2"/>
+      <c r="J7" s="2"/>
+      <c r="K7" s="2"/>
+      <c r="L7" s="2"/>
+      <c r="M7" s="2"/>
+      <c r="N7" s="2"/>
+      <c r="O7" s="2"/>
+      <c r="P7" s="2"/>
+      <c r="Q7" s="2"/>
+      <c r="R7" s="2"/>
+      <c r="S7" s="2"/>
+    </row>
+    <row r="8" spans="1:19" x14ac:dyDescent="0.3">
+      <c r="F8" s="2"/>
+      <c r="G8" s="2"/>
+      <c r="H8" s="2"/>
+      <c r="I8" s="2"/>
+      <c r="J8" s="2"/>
+      <c r="K8" s="2"/>
+      <c r="L8" s="2"/>
+      <c r="M8" s="2"/>
+      <c r="N8" s="2"/>
+      <c r="O8" s="2"/>
+      <c r="P8" s="2"/>
+      <c r="Q8" s="2"/>
+      <c r="R8" s="2"/>
+      <c r="S8" s="2"/>
+    </row>
+    <row r="9" spans="1:19" x14ac:dyDescent="0.3">
+      <c r="F9" s="2"/>
+      <c r="G9" s="2"/>
+      <c r="H9" s="2"/>
+      <c r="I9" s="2"/>
+      <c r="J9" s="2"/>
+      <c r="K9" s="2"/>
+      <c r="L9" s="2"/>
+      <c r="M9" s="2"/>
+      <c r="N9" s="2"/>
+      <c r="O9" s="2"/>
+      <c r="P9" s="2"/>
+      <c r="Q9" s="2"/>
+      <c r="R9" s="2"/>
+      <c r="S9" s="2"/>
+    </row>
+    <row r="10" spans="1:19" x14ac:dyDescent="0.3">
+      <c r="F10" s="2"/>
+      <c r="G10" s="2"/>
+      <c r="H10" s="2"/>
+      <c r="I10" s="2"/>
+      <c r="J10" s="2"/>
+      <c r="K10" s="2"/>
+      <c r="L10" s="2"/>
+      <c r="M10" s="2"/>
+      <c r="N10" s="2"/>
+      <c r="O10" s="2"/>
+      <c r="P10" s="2"/>
+      <c r="Q10" s="2"/>
+      <c r="R10" s="2"/>
+      <c r="S10" s="2"/>
+    </row>
+    <row r="11" spans="1:19" x14ac:dyDescent="0.3">
+      <c r="F11" s="2"/>
+      <c r="G11" s="2"/>
+      <c r="H11" s="2"/>
+      <c r="I11" s="2"/>
+      <c r="J11" s="2"/>
+      <c r="K11" s="2"/>
+      <c r="L11" s="2"/>
+      <c r="M11" s="2"/>
+      <c r="N11" s="2"/>
+      <c r="O11" s="2"/>
+      <c r="P11" s="2"/>
+      <c r="Q11" s="2"/>
+      <c r="R11" s="2"/>
+      <c r="S11" s="2"/>
+    </row>
+    <row r="12" spans="1:19" x14ac:dyDescent="0.3">
+      <c r="F12" s="2"/>
+      <c r="G12" s="2"/>
+      <c r="H12" s="2"/>
+      <c r="I12" s="2"/>
+      <c r="J12" s="2"/>
+      <c r="K12" s="2"/>
+      <c r="L12" s="2"/>
+      <c r="M12" s="2"/>
+      <c r="N12" s="2"/>
+      <c r="O12" s="2"/>
+      <c r="P12" s="2"/>
+      <c r="Q12" s="2"/>
+      <c r="R12" s="2"/>
+      <c r="S12" s="2"/>
+    </row>
+    <row r="13" spans="1:19" x14ac:dyDescent="0.3">
+      <c r="F13" s="2"/>
+      <c r="G13" s="2"/>
+      <c r="H13" s="2"/>
+      <c r="I13" s="2"/>
+      <c r="J13" s="2"/>
+      <c r="K13" s="2"/>
+      <c r="L13" s="2"/>
+      <c r="M13" s="2"/>
+      <c r="N13" s="2"/>
+      <c r="O13" s="2"/>
+      <c r="P13" s="2"/>
+      <c r="Q13" s="2"/>
+      <c r="R13" s="2"/>
+      <c r="S13" s="2"/>
+    </row>
+    <row r="14" spans="1:19" x14ac:dyDescent="0.3">
+      <c r="F14" s="2"/>
+      <c r="G14" s="2"/>
+      <c r="H14" s="2"/>
+      <c r="I14" s="2"/>
+      <c r="J14" s="2"/>
+      <c r="K14" s="2"/>
+      <c r="L14" s="2"/>
+      <c r="M14" s="2"/>
+      <c r="N14" s="2"/>
+      <c r="O14" s="2"/>
+      <c r="P14" s="2"/>
+      <c r="Q14" s="2"/>
+      <c r="R14" s="2"/>
+      <c r="S14" s="2"/>
+    </row>
+    <row r="15" spans="1:19" x14ac:dyDescent="0.3">
+      <c r="F15" s="2"/>
+      <c r="G15" s="2"/>
+      <c r="H15" s="2"/>
+      <c r="I15" s="2"/>
+      <c r="J15" s="2"/>
+      <c r="K15" s="2"/>
+      <c r="L15" s="2"/>
+      <c r="M15" s="2"/>
+      <c r="N15" s="2"/>
+      <c r="O15" s="2"/>
+      <c r="P15" s="2"/>
+      <c r="Q15" s="2"/>
+      <c r="R15" s="2"/>
+      <c r="S15" s="2"/>
+    </row>
+    <row r="16" spans="1:19" x14ac:dyDescent="0.3">
+      <c r="F16" s="2"/>
+      <c r="G16" s="2"/>
+      <c r="H16" s="2"/>
+      <c r="I16" s="2"/>
+      <c r="J16" s="2"/>
+      <c r="K16" s="2"/>
+      <c r="L16" s="2"/>
+      <c r="M16" s="2"/>
+      <c r="N16" s="2"/>
+      <c r="O16" s="2"/>
+      <c r="P16" s="2"/>
+      <c r="Q16" s="2"/>
+      <c r="R16" s="2"/>
+      <c r="S16" s="2"/>
+    </row>
+    <row r="17" spans="6:19" x14ac:dyDescent="0.3">
+      <c r="F17" s="2"/>
+      <c r="G17" s="2"/>
+      <c r="H17" s="2"/>
+      <c r="I17" s="2"/>
+      <c r="J17" s="2"/>
+      <c r="K17" s="2"/>
+      <c r="L17" s="2"/>
+      <c r="M17" s="2"/>
+      <c r="N17" s="2"/>
+      <c r="O17" s="2"/>
+      <c r="P17" s="2"/>
+      <c r="Q17" s="2"/>
+      <c r="R17" s="2"/>
+      <c r="S17" s="2"/>
+    </row>
+    <row r="18" spans="6:19" x14ac:dyDescent="0.3">
+      <c r="F18" s="2"/>
+      <c r="G18" s="2"/>
+      <c r="H18" s="2"/>
+      <c r="I18" s="2"/>
+      <c r="J18" s="2"/>
+      <c r="K18" s="2"/>
+      <c r="L18" s="2"/>
+      <c r="M18" s="2"/>
+      <c r="N18" s="2"/>
+      <c r="O18" s="2"/>
+      <c r="P18" s="2"/>
+      <c r="Q18" s="2"/>
+      <c r="R18" s="2"/>
+      <c r="S18" s="2"/>
+    </row>
+    <row r="19" spans="6:19" x14ac:dyDescent="0.3">
+      <c r="F19" s="2"/>
+      <c r="G19" s="2"/>
+      <c r="H19" s="2"/>
+      <c r="I19" s="2"/>
+      <c r="J19" s="2"/>
+      <c r="K19" s="2"/>
+      <c r="L19" s="2"/>
+      <c r="M19" s="2"/>
+      <c r="N19" s="2"/>
+      <c r="O19" s="2"/>
+      <c r="P19" s="2"/>
+      <c r="Q19" s="2"/>
+      <c r="R19" s="2"/>
+      <c r="S19" s="2"/>
+    </row>
+    <row r="20" spans="6:19" x14ac:dyDescent="0.3">
+      <c r="F20" s="2"/>
+      <c r="G20" s="2"/>
+      <c r="H20" s="2"/>
+      <c r="I20" s="2"/>
+      <c r="J20" s="2"/>
+      <c r="K20" s="2"/>
+      <c r="L20" s="2"/>
+      <c r="M20" s="2"/>
+      <c r="N20" s="2"/>
+      <c r="O20" s="2"/>
+      <c r="P20" s="2"/>
+      <c r="Q20" s="2"/>
+      <c r="R20" s="2"/>
+      <c r="S20" s="2"/>
+    </row>
+    <row r="21" spans="6:19" x14ac:dyDescent="0.3">
+      <c r="F21" s="2"/>
+      <c r="G21" s="2"/>
+      <c r="H21" s="2"/>
+      <c r="I21" s="2"/>
+      <c r="J21" s="2"/>
+      <c r="K21" s="2"/>
+      <c r="L21" s="2"/>
+      <c r="M21" s="2"/>
+      <c r="N21" s="2"/>
+      <c r="O21" s="2"/>
+      <c r="P21" s="2"/>
+      <c r="Q21" s="2"/>
+      <c r="R21" s="2"/>
+      <c r="S21" s="2"/>
+    </row>
+    <row r="22" spans="6:19" x14ac:dyDescent="0.3">
+      <c r="F22" s="2"/>
+      <c r="G22" s="2"/>
+      <c r="H22" s="2"/>
+      <c r="I22" s="2"/>
+      <c r="J22" s="2"/>
+      <c r="K22" s="2"/>
+      <c r="L22" s="2"/>
+      <c r="M22" s="2"/>
+      <c r="N22" s="2"/>
+      <c r="O22" s="2"/>
+      <c r="P22" s="2"/>
+      <c r="Q22" s="2"/>
+      <c r="R22" s="2"/>
+      <c r="S22" s="2"/>
+    </row>
+    <row r="23" spans="6:19" x14ac:dyDescent="0.3">
+      <c r="F23" s="2"/>
+      <c r="G23" s="2"/>
+      <c r="H23" s="2"/>
+      <c r="I23" s="2"/>
+      <c r="J23" s="2"/>
+      <c r="K23" s="2"/>
+      <c r="L23" s="2"/>
+      <c r="M23" s="2"/>
+      <c r="N23" s="2"/>
+      <c r="O23" s="2"/>
+      <c r="P23" s="2"/>
+      <c r="Q23" s="2"/>
+      <c r="R23" s="2"/>
+      <c r="S23" s="2"/>
+    </row>
+    <row r="24" spans="6:19" x14ac:dyDescent="0.3">
+      <c r="F24" s="2"/>
+      <c r="G24" s="2"/>
+      <c r="H24" s="2"/>
+      <c r="I24" s="2"/>
+      <c r="J24" s="2"/>
+      <c r="K24" s="2"/>
+      <c r="L24" s="2"/>
+      <c r="M24" s="2"/>
+      <c r="N24" s="2"/>
+      <c r="O24" s="2"/>
+      <c r="P24" s="2"/>
+      <c r="Q24" s="2"/>
+      <c r="R24" s="2"/>
+      <c r="S24" s="2"/>
+    </row>
+    <row r="25" spans="6:19" x14ac:dyDescent="0.3">
+      <c r="F25" s="2"/>
+      <c r="G25" s="2"/>
+      <c r="H25" s="2"/>
+      <c r="I25" s="2"/>
+      <c r="J25" s="2"/>
+      <c r="K25" s="2"/>
+      <c r="L25" s="2"/>
+      <c r="M25" s="2"/>
+      <c r="N25" s="2"/>
+      <c r="O25" s="2"/>
+      <c r="P25" s="2"/>
+      <c r="Q25" s="2"/>
+      <c r="R25" s="2"/>
+      <c r="S25" s="2"/>
+    </row>
+    <row r="26" spans="6:19" x14ac:dyDescent="0.3">
+      <c r="F26" s="2"/>
+      <c r="G26" s="2"/>
+      <c r="H26" s="2"/>
+      <c r="I26" s="2"/>
+      <c r="J26" s="2"/>
+      <c r="K26" s="2"/>
+      <c r="L26" s="2"/>
+      <c r="M26" s="2"/>
+      <c r="N26" s="2"/>
+      <c r="O26" s="2"/>
+      <c r="P26" s="2"/>
+      <c r="Q26" s="2"/>
+      <c r="R26" s="2"/>
+      <c r="S26" s="2"/>
+    </row>
+    <row r="27" spans="6:19" x14ac:dyDescent="0.3">
+      <c r="F27" s="2"/>
+      <c r="G27" s="2"/>
+      <c r="H27" s="2"/>
+      <c r="I27" s="2"/>
+      <c r="J27" s="2"/>
+      <c r="K27" s="2"/>
+      <c r="L27" s="2"/>
+      <c r="M27" s="2"/>
+      <c r="N27" s="2"/>
+      <c r="O27" s="2"/>
+      <c r="P27" s="2"/>
+      <c r="Q27" s="2"/>
+      <c r="R27" s="2"/>
+      <c r="S27" s="2"/>
+    </row>
+    <row r="28" spans="6:19" x14ac:dyDescent="0.3">
+      <c r="F28" s="2"/>
+      <c r="G28" s="2"/>
+      <c r="H28" s="2"/>
+      <c r="I28" s="2"/>
+      <c r="J28" s="2"/>
+      <c r="K28" s="2"/>
+      <c r="L28" s="2"/>
+      <c r="M28" s="2"/>
+      <c r="N28" s="2"/>
+      <c r="O28" s="2"/>
+      <c r="P28" s="2"/>
+      <c r="Q28" s="2"/>
+      <c r="R28" s="2"/>
+      <c r="S28" s="2"/>
+    </row>
+    <row r="29" spans="6:19" x14ac:dyDescent="0.3">
+      <c r="F29" s="2"/>
+      <c r="G29" s="2"/>
+      <c r="H29" s="2"/>
+      <c r="I29" s="2"/>
+      <c r="J29" s="2"/>
+      <c r="K29" s="2"/>
+      <c r="L29" s="2"/>
+      <c r="M29" s="2"/>
+      <c r="N29" s="2"/>
+      <c r="O29" s="2"/>
+      <c r="P29" s="2"/>
+      <c r="Q29" s="2"/>
+      <c r="R29" s="2"/>
+      <c r="S29" s="2"/>
+    </row>
+    <row r="30" spans="6:19" x14ac:dyDescent="0.3">
+      <c r="F30" s="2"/>
+      <c r="G30" s="2"/>
+      <c r="H30" s="2"/>
+      <c r="I30" s="2"/>
+      <c r="J30" s="2"/>
+      <c r="K30" s="2"/>
+      <c r="L30" s="2"/>
+      <c r="M30" s="2"/>
+      <c r="N30" s="2"/>
+      <c r="O30" s="2"/>
+      <c r="P30" s="2"/>
+      <c r="Q30" s="2"/>
+      <c r="R30" s="2"/>
+      <c r="S30" s="2"/>
+    </row>
+    <row r="31" spans="6:19" x14ac:dyDescent="0.3">
+      <c r="F31" s="2"/>
+      <c r="G31" s="2"/>
+      <c r="H31" s="2"/>
+      <c r="I31" s="2"/>
+      <c r="J31" s="2"/>
+      <c r="K31" s="2"/>
+      <c r="L31" s="2"/>
+      <c r="M31" s="2"/>
+      <c r="N31" s="2"/>
+      <c r="O31" s="2"/>
+      <c r="P31" s="2"/>
+      <c r="Q31" s="2"/>
+      <c r="R31" s="2"/>
+      <c r="S31" s="2"/>
+    </row>
+    <row r="32" spans="6:19" x14ac:dyDescent="0.3">
+      <c r="F32" s="2"/>
+      <c r="G32" s="2"/>
+      <c r="H32" s="2"/>
+      <c r="I32" s="2"/>
+      <c r="J32" s="2"/>
+      <c r="K32" s="2"/>
+      <c r="L32" s="2"/>
+      <c r="M32" s="2"/>
+      <c r="N32" s="2"/>
+      <c r="O32" s="2"/>
+      <c r="P32" s="2"/>
+      <c r="Q32" s="2"/>
+      <c r="R32" s="2"/>
+      <c r="S32" s="2"/>
+    </row>
+    <row r="33" spans="6:19" x14ac:dyDescent="0.3">
+      <c r="F33" s="2"/>
+      <c r="G33" s="2"/>
+      <c r="H33" s="2"/>
+      <c r="I33" s="2"/>
+      <c r="J33" s="2"/>
+      <c r="K33" s="2"/>
+      <c r="L33" s="2"/>
+      <c r="M33" s="2"/>
+      <c r="N33" s="2"/>
+      <c r="O33" s="2"/>
+      <c r="P33" s="2"/>
+      <c r="Q33" s="2"/>
+      <c r="R33" s="2"/>
+      <c r="S33" s="2"/>
+    </row>
+    <row r="34" spans="6:19" x14ac:dyDescent="0.3">
+      <c r="F34" s="2"/>
+      <c r="G34" s="2"/>
+      <c r="H34" s="2"/>
+      <c r="I34" s="2"/>
+      <c r="J34" s="2"/>
+      <c r="K34" s="2"/>
+      <c r="L34" s="2"/>
+      <c r="M34" s="2"/>
+      <c r="N34" s="2"/>
+      <c r="O34" s="2"/>
+      <c r="P34" s="2"/>
+      <c r="Q34" s="2"/>
+      <c r="R34" s="2"/>
+      <c r="S34" s="2"/>
+    </row>
+    <row r="35" spans="6:19" x14ac:dyDescent="0.3">
+      <c r="F35" s="2"/>
+      <c r="G35" s="2"/>
+      <c r="H35" s="2"/>
+      <c r="I35" s="2"/>
+      <c r="J35" s="2"/>
+      <c r="K35" s="2"/>
+      <c r="L35" s="2"/>
+      <c r="M35" s="2"/>
+      <c r="N35" s="2"/>
+      <c r="O35" s="2"/>
+      <c r="P35" s="2"/>
+      <c r="Q35" s="2"/>
+      <c r="R35" s="2"/>
+      <c r="S35" s="2"/>
+    </row>
+    <row r="36" spans="6:19" x14ac:dyDescent="0.3">
+      <c r="F36" s="2"/>
+      <c r="G36" s="2"/>
+      <c r="H36" s="2"/>
+      <c r="I36" s="2"/>
+      <c r="J36" s="2"/>
+      <c r="K36" s="2"/>
+      <c r="L36" s="2"/>
+      <c r="M36" s="2"/>
+      <c r="N36" s="2"/>
+      <c r="O36" s="2"/>
+      <c r="P36" s="2"/>
+      <c r="Q36" s="2"/>
+      <c r="R36" s="2"/>
+      <c r="S36" s="2"/>
+    </row>
+    <row r="37" spans="6:19" x14ac:dyDescent="0.3">
+      <c r="F37" s="2"/>
+      <c r="G37" s="2"/>
+      <c r="H37" s="2"/>
+      <c r="I37" s="2"/>
+      <c r="J37" s="2"/>
+      <c r="K37" s="2"/>
+      <c r="L37" s="2"/>
+      <c r="M37" s="2"/>
+      <c r="N37" s="2"/>
+      <c r="O37" s="2"/>
+      <c r="P37" s="2"/>
+      <c r="Q37" s="2"/>
+      <c r="R37" s="2"/>
+      <c r="S37" s="2"/>
+    </row>
+    <row r="38" spans="6:19" x14ac:dyDescent="0.3">
+      <c r="F38" s="2"/>
+      <c r="G38" s="2"/>
+      <c r="H38" s="2"/>
+      <c r="I38" s="2"/>
+      <c r="J38" s="2"/>
+      <c r="K38" s="2"/>
+      <c r="L38" s="2"/>
+      <c r="M38" s="2"/>
+      <c r="N38" s="2"/>
+      <c r="O38" s="2"/>
+      <c r="P38" s="2"/>
+      <c r="Q38" s="2"/>
+      <c r="R38" s="2"/>
+      <c r="S38" s="2"/>
+    </row>
+    <row r="39" spans="6:19" x14ac:dyDescent="0.3">
+      <c r="F39" s="2"/>
+      <c r="G39" s="2"/>
+      <c r="H39" s="2"/>
+      <c r="I39" s="2"/>
+      <c r="J39" s="2"/>
+      <c r="K39" s="2"/>
+      <c r="L39" s="2"/>
+      <c r="M39" s="2"/>
+      <c r="N39" s="2"/>
+      <c r="O39" s="2"/>
+      <c r="P39" s="2"/>
+      <c r="Q39" s="2"/>
+      <c r="R39" s="2"/>
+      <c r="S39" s="2"/>
+    </row>
+    <row r="40" spans="6:19" x14ac:dyDescent="0.3">
+      <c r="F40" s="2"/>
+      <c r="G40" s="2"/>
+      <c r="H40" s="2"/>
+      <c r="I40" s="2"/>
+      <c r="J40" s="2"/>
+      <c r="K40" s="2"/>
+      <c r="L40" s="2"/>
+      <c r="M40" s="2"/>
+      <c r="N40" s="2"/>
+      <c r="O40" s="2"/>
+      <c r="P40" s="2"/>
+      <c r="Q40" s="2"/>
+      <c r="R40" s="2"/>
+      <c r="S40" s="2"/>
     </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
